--- a/Rag/Rag.MoviesClient/RAG Database Providers.xlsx
+++ b/Rag/Rag.MoviesClient/RAG Database Providers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Sleek\sql2022-workshop-private\6. AI\Rag.MoviesClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Sleek\ai-demos-private\Rag\Rag.MoviesClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779B4FBC-C185-49B0-A84F-9B39DE1BDD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F941BB3-9F65-4A1A-817A-3F65B863A4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFB79FE4-F1A5-45C0-BC49-53125E2D49B2}"/>
   </bookViews>
@@ -47,26 +47,6 @@
     <t>AI assistant</t>
   </si>
   <si>
-    <t>Client calls OpenAI to vectorize question
-Server runs native vector query (VectorDistance function)</t>
-  </si>
-  <si>
-    <t>Server calls OpenAI to vectorize question
-Server run native vector query  (new T-SQL function)</t>
-  </si>
-  <si>
-    <t>Client calls OpenAI to vectorize question
-Server runs classic vector query</t>
-  </si>
-  <si>
-    <t>Server loads from JSON file on local disk
-Server shreds JSON to normalized tables</t>
-  </si>
-  <si>
-    <t>Server loads from JSON file in Azure Blob Storage
-Server shreds JSON to normalized tables</t>
-  </si>
-  <si>
     <t>Cosmos DB NoSQL API</t>
   </si>
   <si>
@@ -79,69 +59,89 @@
     <t>SQL Server (on-prem)</t>
   </si>
   <si>
-    <t>Azure Function captures new/updated documents via change feed
-Azure Function calls OpenAI to vectorize new/updated data
-Azure Function updates vectors to server</t>
-  </si>
-  <si>
-    <t>Client calls OpenAI to vectorize new/updated data
-Client saves new/updated data to server
-Client saves new/updated vectors to server</t>
-  </si>
-  <si>
-    <t>Client sends new/updated data to server
-Server calls OpenAI to vectorize new/updated data
-Server updates vectors with native data type</t>
-  </si>
-  <si>
     <t>Vectorize new/updated data</t>
   </si>
   <si>
-    <t>Client calls OpenAI to vectorize question
-Server runs native vector query ($search stage)</t>
-  </si>
-  <si>
-    <t>Client retrieves data from server
-Client calls OpenAI to vectorize data (bulk batching)
-Client updates vectors to server (bulk write)
-Server indexes vectors using HNSW or IVF</t>
-  </si>
-  <si>
-    <t>Client loads from JSON file on local disk (bulk execution)
-Client saves individual JSON documents to server (bulk execution)</t>
-  </si>
-  <si>
-    <t>Client loads from JSON file on local disk (bulk write)
-Client saves individual JSON documents to server</t>
-  </si>
-  <si>
     <t>Delete data</t>
   </si>
   <si>
-    <t>Server deletes data with vectors</t>
-  </si>
-  <si>
-    <t>Server deletes data from tables
-Server deletes vectors from columnstore</t>
-  </si>
-  <si>
-    <t>Client retrieves data from server
-Client calls OpenAI to vectorize data
-Client updates vectors to server
-Server stores vectors in columnstore index
+    <t>Server loads from JSON file on local disk.
+Server shreds JSON to normalized tables.</t>
+  </si>
+  <si>
+    <t>Client retrieves data from server.
+Client calls OpenAI to vectorize data.
+Client updates vectors to server.
+Server stores vectors in columnstore index.
 (14 min)</t>
   </si>
   <si>
-    <t>Server calls OpenAI to vectorize data
-Server stores vectors in native data type
+    <t>Client calls OpenAI to vectorize new/updated data.
+Client saves new/updated data to server.
+Client saves new/updated vectors to server.</t>
+  </si>
+  <si>
+    <t>Server deletes data from tables.
+Server deletes vectors from columnstore.</t>
+  </si>
+  <si>
+    <t>Client calls OpenAI to vectorize question.
+Server runs classic vector query.</t>
+  </si>
+  <si>
+    <t>Server calls OpenAI to vectorize question.
+Server run native vector query  (new T-SQL function).</t>
+  </si>
+  <si>
+    <t>Server deletes data with vectors.</t>
+  </si>
+  <si>
+    <t>Client sends new/updated data to server.
+Server calls OpenAI to vectorize new/updated data.
+Server updates vectors with native data type.</t>
+  </si>
+  <si>
+    <t>Server calls OpenAI to vectorize data.
+Server stores vectors in native data type.
 (19 min)</t>
   </si>
   <si>
-    <t>Client retrieves data from server
-Client calls OpenAI to vectorize data (bulk batching)
-Client updates vectors to server (bulk execution)
-Server indexes vectors using DiskANN
+    <t>Server loads from JSON file in Azure Blob Storage.
+Server shreds JSON to normalized tables.</t>
+  </si>
+  <si>
+    <t>Client loads from JSON file on local disk (bulk execution).
+Client saves individual JSON documents to server (bulk execution).</t>
+  </si>
+  <si>
+    <t>Client retrieves data from server.
+Client calls OpenAI to vectorize data (bulk batching).
+Client updates vectors to server (bulk execution).
+Server indexes vectors using DiskANN.
 (19 min)</t>
+  </si>
+  <si>
+    <t>Azure Function captures new/updated documents via change feed.
+Azure Function calls OpenAI to vectorize new/updated data.
+Azure Function updates vectors to server.</t>
+  </si>
+  <si>
+    <t>Client calls OpenAI to vectorize question.
+Server runs native vector query (VectorDistance function).</t>
+  </si>
+  <si>
+    <t>Client calls OpenAI to vectorize question.
+Server runs native vector query ($search stage).</t>
+  </si>
+  <si>
+    <t>Client loads from JSON file on local disk (bulk write),
+Client saves individual JSON documents to server,</t>
+  </si>
+  <si>
+    <t>Client retrieves data from server.
+Client calls OpenAI to vectorize data (bulk batching).
+Client updates vectors to server (bulk write).
+Server indexes vectors using HNSW or IVF.</t>
   </si>
 </sst>
 </file>
@@ -561,25 +561,25 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -604,67 +604,67 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
